--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16BBFAEA-BD74-48F0-A9C9-FD52598CC657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B09A4C6C-4368-414D-BB83-38D149529464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15405" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Search" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J6"/>
+  <oleSize ref="A1:G6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,16 +136,16 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu10@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda10@gmail.com</t>
-  </si>
-  <si>
-    <t>kartika.varma10@gmail.com</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda10@gmail.com</t>
+    <t>ibu11@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda11@gmail.com</t>
+  </si>
+  <si>
+    <t>kartika.varma11@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625A7669-C8BD-4633-AAC0-DE224CB58F45}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FE5061-7EED-444C-8BF5-C6298928785F}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B09A4C6C-4368-414D-BB83-38D149529464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F76B1014-3F96-4589-A4EA-775DBFA7DBDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15405" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15615" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="3" r:id="rId2"/>
-    <sheet name="Search" sheetId="2" r:id="rId3"/>
+    <sheet name="Search" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G6"/>
+  <oleSize ref="A1:G7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,18 +94,6 @@
     <t>Keyboard</t>
   </si>
   <si>
-    <t>9999999991</t>
-  </si>
-  <si>
-    <t>9999999992</t>
-  </si>
-  <si>
-    <t>9999999993</t>
-  </si>
-  <si>
-    <t>9999999994</t>
-  </si>
-  <si>
     <t>subscribe</t>
   </si>
   <si>
@@ -136,16 +124,28 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu11@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda11@gmail.com</t>
-  </si>
-  <si>
-    <t>kartika.varma11@gmail.com</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda11@gmail.com</t>
+    <t>ibu16@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda16@gmail.com</t>
+  </si>
+  <si>
+    <t>kartika.varma16@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda16@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000011</t>
+  </si>
+  <si>
+    <t>1000000012</t>
+  </si>
+  <si>
+    <t>1000000013</t>
+  </si>
+  <si>
+    <t>1000000014</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,16 +552,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -572,16 +572,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,16 +592,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,16 +612,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -639,9 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305B1B2B-AFEE-4201-A27E-A2E0D040B425}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,57 +649,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -714,11 +712,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FE5061-7EED-444C-8BF5-C6298928785F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9811155B-E6D1-4D69-A982-1DAFA670992E}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F76B1014-3F96-4589-A4EA-775DBFA7DBDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2A9D0BEA-BE33-429E-B059-E3C924DF0D37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15615" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7875" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -124,28 +124,28 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu16@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda16@gmail.com</t>
-  </si>
-  <si>
-    <t>kartika.varma16@gmail.com</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda16@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000011</t>
-  </si>
-  <si>
-    <t>1000000012</t>
-  </si>
-  <si>
-    <t>1000000013</t>
-  </si>
-  <si>
-    <t>1000000014</t>
+    <t>ibu17@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda17@gmail.com</t>
+  </si>
+  <si>
+    <t>kartika.varma17@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda17@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000015</t>
+  </si>
+  <si>
+    <t>1000000016</t>
+  </si>
+  <si>
+    <t>1000000017</t>
+  </si>
+  <si>
+    <t>1000000018</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2A9D0BEA-BE33-429E-B059-E3C924DF0D37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D77E14DC-51FB-41E3-ACA2-93085807887F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7875" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15405" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -124,28 +124,28 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu17@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda17@gmail.com</t>
-  </si>
-  <si>
-    <t>kartika.varma17@gmail.com</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda17@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000015</t>
-  </si>
-  <si>
-    <t>1000000016</t>
-  </si>
-  <si>
-    <t>1000000017</t>
-  </si>
-  <si>
-    <t>1000000018</t>
+    <t>ibu18@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda18@gmail.com</t>
+  </si>
+  <si>
+    <t>kartika.varma18@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda18@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000019</t>
+  </si>
+  <si>
+    <t>1000000020</t>
+  </si>
+  <si>
+    <t>1000000021</t>
+  </si>
+  <si>
+    <t>1000000022</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D77E14DC-51FB-41E3-ACA2-93085807887F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6EB62C43-79D3-45EE-A2E4-C415D37031E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15405" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15555" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -124,28 +124,28 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu18@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda18@gmail.com</t>
-  </si>
-  <si>
-    <t>kartika.varma18@gmail.com</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda18@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000019</t>
-  </si>
-  <si>
-    <t>1000000020</t>
-  </si>
-  <si>
-    <t>1000000021</t>
-  </si>
-  <si>
-    <t>1000000022</t>
+    <t>kavita.kharbanda22@gmail.com</t>
+  </si>
+  <si>
+    <t>ibu22@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda22@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000031</t>
+  </si>
+  <si>
+    <t>1000000032</t>
+  </si>
+  <si>
+    <t>1000000033</t>
+  </si>
+  <si>
+    <t>1000000034</t>
+  </si>
+  <si>
+    <t>kartika.varma22@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -572,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -592,10 +592,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -612,10 +612,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6EB62C43-79D3-45EE-A2E4-C415D37031E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EE0009F2-F6FF-4F73-8C30-F542548B22C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15555" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15585" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -124,28 +124,28 @@
     <t>""</t>
   </si>
   <si>
-    <t>kavita.kharbanda22@gmail.com</t>
-  </si>
-  <si>
-    <t>ibu22@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda22@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000031</t>
-  </si>
-  <si>
-    <t>1000000032</t>
-  </si>
-  <si>
-    <t>1000000033</t>
-  </si>
-  <si>
-    <t>1000000034</t>
-  </si>
-  <si>
-    <t>kartika.varma22@gmail.com</t>
+    <t>ibu23@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda23@gmail.com</t>
+  </si>
+  <si>
+    <t>kartika.varma23@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda23@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000035</t>
+  </si>
+  <si>
+    <t>1000000036</t>
+  </si>
+  <si>
+    <t>1000000037</t>
+  </si>
+  <si>
+    <t>1000000038</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -572,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -592,10 +592,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -612,10 +612,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EE0009F2-F6FF-4F73-8C30-F542548B22C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0BF1FA81-18B5-42F0-81C4-73902D84ACBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15585" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15615" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>firstname</t>
   </si>
@@ -124,28 +124,25 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu23@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda23@gmail.com</t>
-  </si>
-  <si>
-    <t>kartika.varma23@gmail.com</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda23@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000035</t>
-  </si>
-  <si>
-    <t>1000000036</t>
-  </si>
-  <si>
-    <t>1000000037</t>
-  </si>
-  <si>
-    <t>1000000038</t>
+    <t>ibu24@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000039</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda24@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000040</t>
+  </si>
+  <si>
+    <t>kartika.varma24@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000041</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda24@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -512,7 +509,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +552,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -572,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -592,10 +589,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -612,10 +609,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0BF1FA81-18B5-42F0-81C4-73902D84ACBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9369D0FF-D214-4C9F-AF5C-447D53747DCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15615" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15645" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>firstname</t>
   </si>
@@ -124,25 +124,28 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu24@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000039</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda24@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000040</t>
-  </si>
-  <si>
-    <t>kartika.varma24@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000041</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda24@gmail.com</t>
+    <t>ibu25@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda25@gmail.com</t>
+  </si>
+  <si>
+    <t>kartika.varma25@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda25@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000042</t>
+  </si>
+  <si>
+    <t>1000000043</t>
+  </si>
+  <si>
+    <t>1000000044</t>
+  </si>
+  <si>
+    <t>1000000045</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +555,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -569,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -589,10 +592,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -609,10 +612,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9369D0FF-D214-4C9F-AF5C-447D53747DCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16304FEE-8FF6-4CF1-B7F3-96AE81FE7645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15645" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15735" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -124,28 +124,28 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu25@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda25@gmail.com</t>
-  </si>
-  <si>
-    <t>kartika.varma25@gmail.com</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda25@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000042</t>
-  </si>
-  <si>
-    <t>1000000043</t>
-  </si>
-  <si>
-    <t>1000000044</t>
-  </si>
-  <si>
-    <t>1000000045</t>
+    <t>ibu28@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda28@gmail.com</t>
+  </si>
+  <si>
+    <t>kartika.varma28@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda28@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000054</t>
+  </si>
+  <si>
+    <t>1000000055</t>
+  </si>
+  <si>
+    <t>1000000056</t>
+  </si>
+  <si>
+    <t>1000000057</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16304FEE-8FF6-4CF1-B7F3-96AE81FE7645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7DCC9395-4991-4D70-A4DF-0F4441770261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15735" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15855" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -124,28 +124,28 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu28@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda28@gmail.com</t>
-  </si>
-  <si>
-    <t>kartika.varma28@gmail.com</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda28@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000054</t>
-  </si>
-  <si>
-    <t>1000000055</t>
-  </si>
-  <si>
-    <t>1000000056</t>
-  </si>
-  <si>
-    <t>1000000057</t>
+    <t>ibu32@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda32@gmail.com</t>
+  </si>
+  <si>
+    <t>kartika.varma32@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda32@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000070</t>
+  </si>
+  <si>
+    <t>1000000071</t>
+  </si>
+  <si>
+    <t>1000000072</t>
+  </si>
+  <si>
+    <t>1000000073</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7DCC9395-4991-4D70-A4DF-0F4441770261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5C944303-3784-4675-B40C-DAFC240E7C13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15855" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="15915" windowHeight="11820" xr2:uid="{845CB9C4-2866-4311-9FF1-5E8FED9AC6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -124,28 +124,28 @@
     <t>""</t>
   </si>
   <si>
-    <t>ibu32@gmail.com</t>
-  </si>
-  <si>
-    <t>deepti.kharbanda32@gmail.com</t>
-  </si>
-  <si>
-    <t>kartika.varma32@gmail.com</t>
-  </si>
-  <si>
-    <t>kavita.kharbanda32@gmail.com</t>
-  </si>
-  <si>
-    <t>1000000070</t>
-  </si>
-  <si>
-    <t>1000000071</t>
-  </si>
-  <si>
-    <t>1000000072</t>
-  </si>
-  <si>
-    <t>1000000073</t>
+    <t>ibu34@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti.kharbanda34@gmail.com</t>
+  </si>
+  <si>
+    <t>kartika.varma34@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.kharbanda34@gmail.com</t>
+  </si>
+  <si>
+    <t>1000000078</t>
+  </si>
+  <si>
+    <t>1000000079</t>
+  </si>
+  <si>
+    <t>1000000080</t>
+  </si>
+  <si>
+    <t>1000000081</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
